--- a/HappyHomeDesigner/HappyHomeDesigner/data/EXCEL_DATA/家具設置用.xlsx
+++ b/HappyHomeDesigner/HappyHomeDesigner/data/EXCEL_DATA/家具設置用.xlsx
@@ -12,9 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9380"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="set_furniture" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -793,7 +793,7 @@
   <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -907,7 +907,7 @@
         <v>10000</v>
       </c>
       <c r="P2" s="40">
-        <v>100</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -957,7 +957,7 @@
         <v>10000</v>
       </c>
       <c r="P3" s="41">
-        <v>100</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -1007,7 +1007,7 @@
         <v>10000</v>
       </c>
       <c r="P4" s="41">
-        <v>100</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -1057,7 +1057,7 @@
         <v>50000</v>
       </c>
       <c r="P5" s="41">
-        <v>90</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -1107,7 +1107,7 @@
         <v>50000</v>
       </c>
       <c r="P6" s="41">
-        <v>90</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -1157,7 +1157,7 @@
         <v>50000</v>
       </c>
       <c r="P7" s="41">
-        <v>90</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -1207,7 +1207,7 @@
         <v>65535</v>
       </c>
       <c r="P8" s="41">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -1257,7 +1257,7 @@
         <v>10000</v>
       </c>
       <c r="P9" s="41">
-        <v>30</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -1307,7 +1307,7 @@
         <v>100000</v>
       </c>
       <c r="P10" s="41">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -1357,7 +1357,7 @@
         <v>65535</v>
       </c>
       <c r="P11" s="41">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -1407,7 +1407,7 @@
         <v>10000</v>
       </c>
       <c r="P12" s="41">
-        <v>30</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -1457,7 +1457,7 @@
         <v>100000</v>
       </c>
       <c r="P13" s="41">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -1507,7 +1507,7 @@
         <v>65535</v>
       </c>
       <c r="P14" s="41">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -1557,7 +1557,7 @@
         <v>10000</v>
       </c>
       <c r="P15" s="41">
-        <v>30</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -1607,7 +1607,7 @@
         <v>100000</v>
       </c>
       <c r="P16" s="41">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -1657,7 +1657,7 @@
         <v>3000000000</v>
       </c>
       <c r="P17" s="41">
-        <v>0.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -1707,7 +1707,7 @@
         <v>3000000000</v>
       </c>
       <c r="P18" s="41">
-        <v>0.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1757,7 +1757,7 @@
         <v>3000000000</v>
       </c>
       <c r="P19" s="41">
-        <v>0.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -1807,7 +1807,7 @@
         <v>300000</v>
       </c>
       <c r="P20" s="41">
-        <v>80</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -1857,7 +1857,7 @@
         <v>300000</v>
       </c>
       <c r="P21" s="41">
-        <v>80</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
@@ -1907,7 +1907,7 @@
         <v>300000</v>
       </c>
       <c r="P22" s="41">
-        <v>80</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -1957,7 +1957,7 @@
         <v>1000000</v>
       </c>
       <c r="P23" s="41">
-        <v>70</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -2007,7 +2007,7 @@
         <v>1000000</v>
       </c>
       <c r="P24" s="41">
-        <v>70</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -2057,7 +2057,7 @@
         <v>1000000</v>
       </c>
       <c r="P25" s="41">
-        <v>70</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
@@ -2107,7 +2107,7 @@
         <v>12000000</v>
       </c>
       <c r="P26" s="41">
-        <v>50</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
@@ -2157,7 +2157,7 @@
         <v>12000000</v>
       </c>
       <c r="P27" s="41">
-        <v>50</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
@@ -2207,7 +2207,7 @@
         <v>12000000</v>
       </c>
       <c r="P28" s="41">
-        <v>50</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
@@ -2257,7 +2257,7 @@
         <v>10000000000</v>
       </c>
       <c r="P29" s="41">
-        <v>0.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
@@ -2307,7 +2307,7 @@
         <v>5000000</v>
       </c>
       <c r="P30" s="41">
-        <v>0.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
@@ -2357,7 +2357,7 @@
         <v>7500000</v>
       </c>
       <c r="P31" s="41">
-        <v>0.05</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
@@ -2407,7 +2407,7 @@
         <v>10000000000</v>
       </c>
       <c r="P32" s="41">
-        <v>0.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -2457,7 +2457,7 @@
         <v>5000000</v>
       </c>
       <c r="P33" s="41">
-        <v>0.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
@@ -2507,7 +2507,7 @@
         <v>7500000</v>
       </c>
       <c r="P34" s="41">
-        <v>0.05</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
@@ -2557,7 +2557,7 @@
         <v>10000000000</v>
       </c>
       <c r="P35" s="41">
-        <v>0.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
@@ -2607,7 +2607,7 @@
         <v>5000000</v>
       </c>
       <c r="P36" s="41">
-        <v>0.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
@@ -2657,7 +2657,7 @@
         <v>7500000</v>
       </c>
       <c r="P37" s="41">
-        <v>0.05</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
@@ -2707,7 +2707,7 @@
         <v>8000000</v>
       </c>
       <c r="P38" s="41">
-        <v>30</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
@@ -2757,7 +2757,7 @@
         <v>8000000</v>
       </c>
       <c r="P39" s="41">
-        <v>30</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
@@ -2807,7 +2807,7 @@
         <v>8000000</v>
       </c>
       <c r="P40" s="41">
-        <v>30</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
@@ -2857,7 +2857,7 @@
         <v>10000000</v>
       </c>
       <c r="P41" s="41">
-        <v>30</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
@@ -2907,7 +2907,7 @@
         <v>10000000</v>
       </c>
       <c r="P42" s="41">
-        <v>30</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2957,7 +2957,7 @@
         <v>10000000</v>
       </c>
       <c r="P43" s="42">
-        <v>30</v>
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
